--- a/Phylogenetic Distances/Statistics_Input.xlsx
+++ b/Phylogenetic Distances/Statistics_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/040e7ab5c4e56160/Documents/GitHub/Annabel-BSc-Project/Phylogenetic Distances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{EE0D45CE-419E-40CF-B4F8-04A46B4F0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{455B30B4-D82D-46C5-91AB-51EA8BA486BD}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{EE0D45CE-419E-40CF-B4F8-04A46B4F0299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B890C03-CEDA-4109-BF3F-2D2EDBC3607A}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="15720" windowHeight="10920" xr2:uid="{64AEA9C6-B573-41E7-96F7-999869141028}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{64AEA9C6-B573-41E7-96F7-999869141028}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B6AE74-3852-49FA-BC82-2ADF7E2AC097}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -694,7 +694,7 @@
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -741,7 +741,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -765,7 +765,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -789,7 +789,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -813,7 +813,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -837,7 +837,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -861,7 +861,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -885,7 +885,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -909,7 +909,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -933,7 +933,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -957,7 +957,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -980,12 +980,8 @@
       <c r="G12">
         <v>213</v>
       </c>
-      <c r="J12">
-        <f>COUNTIFS(E:E, "pathogenic", F:F, "&gt;=3", F:F, "&lt;=12")</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1008,12 +1004,8 @@
       <c r="G13">
         <v>213</v>
       </c>
-      <c r="J13">
-        <f>COUNTIFS(E:E, "benign", F:F, "&gt;=3", F:F, "&lt;=12")</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1029,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1060,12 +1052,8 @@
       <c r="G15">
         <v>727</v>
       </c>
-      <c r="J15">
-        <f>COUNTIF(E:E,"Pathogenic")</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1087,10 +1075,6 @@
       </c>
       <c r="G16">
         <v>727</v>
-      </c>
-      <c r="J16">
-        <f>COUNTIF(E:E, "Benign")</f>
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2487,5 +2471,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>